--- a/DB/DB-Schema.xlsx
+++ b/DB/DB-Schema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="150">
   <si>
     <t xml:space="preserve">Table: Users</t>
   </si>
@@ -431,6 +431,45 @@
   </si>
   <si>
     <t xml:space="preserve">voluntary_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voluntary_hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table: Voluntary Goals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table: Contact us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table: Banner Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banner_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banner_image</t>
   </si>
 </sst>
 </file>
@@ -440,7 +479,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -478,6 +517,13 @@
     <font>
       <b val="true"/>
       <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -532,7 +578,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -574,6 +620,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -654,10 +708,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L224"/>
+  <dimension ref="A2:L255"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C224" activeCellId="0" sqref="C224"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A232" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H249" activeCellId="0" sqref="H249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3832,10 +3886,10 @@
       <c r="B220" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C220" s="10" t="n">
+      <c r="C220" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="D220" s="10" t="s">
+      <c r="D220" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E220" s="4" t="s">
@@ -3902,10 +3956,10 @@
       <c r="B223" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C223" s="0" t="n">
+      <c r="C223" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D223" s="0" t="s">
+      <c r="D223" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E223" s="1" t="s">
@@ -3919,9 +3973,468 @@
       <c r="B224" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="D224" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C234" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+      <c r="H234" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C235" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C237" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
+      <c r="H245" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C246" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E249" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="2"/>
+      <c r="L252" s="2"/>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C254" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G254" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H254" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D255" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="A41:L41"/>
@@ -3942,6 +4455,9 @@
     <mergeCell ref="A196:L196"/>
     <mergeCell ref="A209:L209"/>
     <mergeCell ref="A218:L218"/>
+    <mergeCell ref="A230:L230"/>
+    <mergeCell ref="A242:L242"/>
+    <mergeCell ref="A252:L252"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
